--- a/Functional skills maths/assets/bios/bios.xlsx
+++ b/Functional skills maths/assets/bios/bios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -70,10 +70,16 @@
     <t>Abdulkadir Jeilani</t>
   </si>
   <si>
-    <t>Abdulbio</t>
+    <t>Abdulbio.jpg</t>
   </si>
   <si>
     <t>Experienced educator excited to be a part of the multiverse vision</t>
+  </si>
+  <si>
+    <t>abdulkadir.jeilani@multiverse.io</t>
+  </si>
+  <si>
+    <t>https://calendly.com/abdulkadir-jeilani/15min</t>
   </si>
   <si>
     <t>Nick Griffiths</t>
@@ -135,11 +141,6 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="11.0"/>
       <color theme="10"/>
@@ -149,6 +150,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -196,10 +202,10 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -484,36 +490,41 @@
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -521,7 +532,7 @@
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6483,11 +6494,12 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E2"/>
     <hyperlink r:id="rId2" ref="E3"/>
-    <hyperlink r:id="rId3" ref="D5"/>
+    <hyperlink r:id="rId3" ref="E4"/>
+    <hyperlink r:id="rId4" ref="D5"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>